--- a/Acquisti Sistema Pylon.xlsx
+++ b/Acquisti Sistema Pylon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistema_Pylon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2643AC84-3E07-4479-B04F-E2CF5DE43D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD229ABF-F4DA-4C7A-9E4C-52A539EADDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{919D15A3-50BB-4F82-B8B9-179E2E0BB8A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{919D15A3-50BB-4F82-B8B9-179E2E0BB8A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Ordini Giacomo" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t xml:space="preserve">Articolo </t>
   </si>
@@ -144,9 +155,6 @@
     <t>Antenna Maialino 433</t>
   </si>
   <si>
-    <t>Lora 868</t>
-  </si>
-  <si>
     <t>Luce Semaforo Rossa</t>
   </si>
   <si>
@@ -156,7 +164,25 @@
     <t xml:space="preserve">Legno Semaforo </t>
   </si>
   <si>
-    <t>Totale</t>
+    <t>868 lora Transciver ebay , sx1266</t>
+  </si>
+  <si>
+    <t>Lora 868 ebyte</t>
+  </si>
+  <si>
+    <t>Pagato con Soldi Paolo</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Totale Acquistato</t>
+  </si>
+  <si>
+    <t>Totale Soldi Paolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale Uscite </t>
   </si>
 </sst>
 </file>
@@ -172,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +208,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,12 +236,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -520,23 +558,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B13C806-7CE5-45F5-9685-FF6FD46C60BA}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +588,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -565,7 +607,7 @@
         <v>12.989999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -580,15 +622,15 @@
         <v>23.99</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2">
-        <f>SUM(D2:D199)</f>
-        <v>664.75999999999988</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3">
+        <f>SUM(D2:D50)</f>
+        <v>689.6099999999999</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -599,11 +641,18 @@
         <v>22.99</v>
       </c>
       <c r="D4">
-        <f>B4*C4</f>
+        <f t="shared" ref="D4:D15" si="1">B4*C4</f>
         <v>45.98</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <f>SUMIF(E2:E50,"X",D2:D50)</f>
+        <v>76.699999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -614,11 +663,11 @@
         <v>7.99</v>
       </c>
       <c r="D5">
-        <f>B5*C5</f>
+        <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -629,11 +678,18 @@
         <v>22.98</v>
       </c>
       <c r="D6">
-        <f>B6*C6</f>
+        <f t="shared" si="1"/>
         <v>22.98</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <f>G3-G4</f>
+        <v>612.90999999999985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -644,11 +700,11 @@
         <v>11.99</v>
       </c>
       <c r="D7">
-        <f>B7*C7</f>
+        <f t="shared" si="1"/>
         <v>11.99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -659,11 +715,11 @@
         <v>11.99</v>
       </c>
       <c r="D8">
-        <f>B8*C8</f>
+        <f t="shared" si="1"/>
         <v>11.99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -674,11 +730,11 @@
         <v>9.99</v>
       </c>
       <c r="D9">
-        <f>B9*C9</f>
+        <f t="shared" si="1"/>
         <v>9.99</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -689,11 +745,11 @@
         <v>7.99</v>
       </c>
       <c r="D10">
-        <f>B10*C10</f>
+        <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -704,26 +760,29 @@
         <v>22.99</v>
       </c>
       <c r="D11">
-        <f>B11*C11</f>
+        <f t="shared" si="1"/>
         <v>22.99</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>2.3199999999999998</v>
       </c>
-      <c r="D12">
-        <f>B12*C12</f>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
         <v>27.839999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -734,41 +793,47 @@
         <v>1.9</v>
       </c>
       <c r="D13">
-        <f>B13*C13</f>
+        <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>3.13</v>
       </c>
-      <c r="D14">
-        <f>B14*C14</f>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
         <v>3.13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>24</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>0.87</v>
       </c>
-      <c r="D15">
-        <f>B15*C15</f>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
         <v>20.88</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -783,7 +848,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -791,14 +856,14 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C35" si="1">D17/B17</f>
+        <f t="shared" ref="C17:C35" si="2">D17/B17</f>
         <v>2.13</v>
       </c>
       <c r="D17">
         <v>2.13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -806,14 +871,14 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8687499999999999</v>
       </c>
       <c r="D18">
         <v>22.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -821,14 +886,14 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.63</v>
       </c>
       <c r="D19">
         <v>27.63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -836,14 +901,14 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75.8</v>
       </c>
       <c r="D20">
         <v>75.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -851,14 +916,14 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7550000000000008</v>
       </c>
       <c r="D21">
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -866,14 +931,14 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.02</v>
       </c>
       <c r="D22">
         <v>3.02</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -881,14 +946,14 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.08</v>
       </c>
       <c r="D23">
         <v>2.08</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -896,14 +961,14 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.31</v>
       </c>
       <c r="D24">
         <v>7.31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -911,14 +976,14 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61399999999999999</v>
       </c>
       <c r="D25">
         <v>3.07</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -926,14 +991,14 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.275</v>
       </c>
       <c r="D26">
         <v>20.55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -941,14 +1006,14 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25952380952380955</v>
       </c>
       <c r="D27">
         <v>5.45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -956,14 +1021,14 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.59</v>
       </c>
       <c r="D28">
         <v>2.59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -971,14 +1036,14 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.64</v>
       </c>
       <c r="D29">
         <v>20.64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -986,14 +1051,14 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.48</v>
       </c>
       <c r="D30">
         <v>3.48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1001,14 +1066,14 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1016,14 +1081,14 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22799999999999998</v>
       </c>
       <c r="D32">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1031,14 +1096,14 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.48</v>
       </c>
       <c r="D33">
         <v>2.96</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1046,14 +1111,14 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.56</v>
       </c>
       <c r="D34">
         <v>10.56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1061,14 +1126,14 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.52</v>
       </c>
       <c r="D35">
         <v>5.52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1083,9 +1148,9 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1098,55 +1163,70 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:C40" si="2">D38/B38</f>
+        <f t="shared" ref="C38:C41" si="3">D38/B38</f>
         <v>56.58</v>
       </c>
       <c r="D38">
         <v>56.58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.97</v>
       </c>
       <c r="D39">
         <v>25.97</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="D40">
         <v>59</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="3"/>
+        <v>12.425000000000001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>24.85</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G3:H3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Acquisti Sistema Pylon.xlsx
+++ b/Acquisti Sistema Pylon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistema_Pylon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD229ABF-F4DA-4C7A-9E4C-52A539EADDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5B9C91-7D45-49D5-AA72-F2F71BC7EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{919D15A3-50BB-4F82-B8B9-179E2E0BB8A6}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t xml:space="preserve">Articolo </t>
   </si>
@@ -89,9 +87,6 @@
     <t>100pcs interruttore accensione</t>
   </si>
   <si>
-    <t>Pulsanti Alluminio Telecomandi</t>
-  </si>
-  <si>
     <t>Antenne Piccole 868 90 gradi</t>
   </si>
   <si>
@@ -183,6 +178,21 @@
   </si>
   <si>
     <t xml:space="preserve">Totale Uscite </t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>Pulsanti Alluminio Telecomandi 1</t>
+  </si>
+  <si>
+    <t>Pulsanti Alluminio Telecomandi 2</t>
   </si>
 </sst>
 </file>
@@ -198,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +233,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,21 +272,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{07735F83-ABEE-4542-9AF9-B08D010F0873}"/>
   </tableStyles>
@@ -558,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B13C806-7CE5-45F5-9685-FF6FD46C60BA}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,25 +642,25 @@
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -607,8 +674,8 @@
         <v>12.989999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -622,16 +689,15 @@
         <v>23.99</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="3">
-        <f>SUM(D2:D50)</f>
-        <v>689.6099999999999</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <f>SUM(D2:D51)</f>
+        <v>689.58999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -641,19 +707,19 @@
         <v>22.99</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D15" si="1">B4*C4</f>
+        <f t="shared" ref="D4:D16" si="1">B4*C4</f>
         <v>45.98</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <f>SUMIF(E2:E50,"X",D2:D50)</f>
-        <v>76.699999999999989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <f>SUMIF(E2:E51,"X",D2:D51)</f>
+        <v>76.680000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -667,8 +733,8 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -681,16 +747,16 @@
         <f t="shared" si="1"/>
         <v>22.98</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G6">
         <f>G3-G4</f>
         <v>612.90999999999985</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B7">
@@ -704,8 +770,8 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -719,8 +785,8 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9">
@@ -734,8 +800,8 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10">
@@ -749,8 +815,8 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -763,27 +829,33 @@
         <f t="shared" si="1"/>
         <v>22.99</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>27.839999999999996</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B13">
@@ -796,437 +868,464 @@
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>3.13</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <f t="shared" si="1"/>
         <v>3.13</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="E14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>0.87</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>20.88</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15">
+        <f t="shared" ref="D15" si="2">B15*C15</f>
+        <v>5.22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
         <v>18</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
       </c>
       <c r="C16">
         <f>D16/B16</f>
+        <v>0.86888888888888893</v>
+      </c>
+      <c r="D16">
+        <v>15.64</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f>D17/B17</f>
         <v>1.635</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>3.27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C36" si="3">D18/B18</f>
+        <v>2.13</v>
+      </c>
+      <c r="D18">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:C35" si="2">D17/B17</f>
-        <v>2.13</v>
-      </c>
-      <c r="D17">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>2.8687499999999999</v>
+      </c>
+      <c r="D19">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>2.8687499999999999</v>
-      </c>
-      <c r="D18">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
         <v>27.63</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>27.63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>75.8</v>
-      </c>
-      <c r="D20">
-        <v>75.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>75.8</v>
+      </c>
+      <c r="D21">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="D22">
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>3.02</v>
+      </c>
+      <c r="D23">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>2.08</v>
+      </c>
+      <c r="D24">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>7.31</v>
+      </c>
+      <c r="D25">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="D26">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>8.7550000000000008</v>
-      </c>
-      <c r="D21">
-        <v>17.510000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>3.02</v>
-      </c>
-      <c r="D22">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>2.08</v>
-      </c>
-      <c r="D23">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>7.31</v>
-      </c>
-      <c r="D24">
-        <v>7.31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="D25">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>10.275</v>
+      </c>
+      <c r="D27">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
-        <v>10.275</v>
-      </c>
-      <c r="D26">
-        <v>20.55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>0.25952380952380955</v>
+      </c>
+      <c r="D28">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="2"/>
-        <v>0.25952380952380955</v>
-      </c>
-      <c r="D27">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>2.59</v>
+      </c>
+      <c r="D29">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="2"/>
-        <v>2.59</v>
-      </c>
-      <c r="D28">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>20.64</v>
+      </c>
+      <c r="D30">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="2"/>
-        <v>20.64</v>
-      </c>
-      <c r="D29">
-        <v>20.64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="2"/>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
         <v>3.48</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>3.48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="D33">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="2"/>
-        <v>0.22799999999999998</v>
-      </c>
-      <c r="D32">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>1.48</v>
+      </c>
+      <c r="D34">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="2"/>
-        <v>1.48</v>
-      </c>
-      <c r="D33">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>10.56</v>
+      </c>
+      <c r="D35">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="2"/>
-        <v>10.56</v>
-      </c>
-      <c r="D34">
-        <v>10.56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>5.52</v>
+      </c>
+      <c r="D36">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="2"/>
-        <v>5.52</v>
-      </c>
-      <c r="D35">
-        <v>5.52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>3.14</v>
-      </c>
-      <c r="D36">
-        <f>C36*B36</f>
-        <v>6.28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>43</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <f>D37/B37</f>
+        <v>3.14</v>
+      </c>
+      <c r="D37">
+        <f>C37*B37</f>
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <f>D38/B38</f>
         <v>4.45</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>8.9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C42" si="4">D39/B39</f>
+        <v>56.58</v>
+      </c>
+      <c r="D39">
+        <v>56.58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:C41" si="3">D38/B38</f>
-        <v>56.58</v>
-      </c>
-      <c r="D38">
-        <v>56.58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>25.97</v>
+      </c>
+      <c r="D40">
+        <v>25.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="3"/>
-        <v>25.97</v>
-      </c>
-      <c r="D39">
-        <v>25.97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="D41">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="D40">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C41" s="2">
-        <f t="shared" si="3"/>
+      <c r="C42">
+        <f t="shared" si="4"/>
         <v>12.425000000000001</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42">
         <v>24.85</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>45</v>
+      <c r="E42" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Acquisti Sistema Pylon.xlsx
+++ b/Acquisti Sistema Pylon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistema_Pylon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\Github\Sistema_Pylon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5B9C91-7D45-49D5-AA72-F2F71BC7EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C040B48D-E395-417A-940F-B4F8990DDF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{919D15A3-50BB-4F82-B8B9-179E2E0BB8A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{919D15A3-50BB-4F82-B8B9-179E2E0BB8A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Ordini Giacomo" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B13C806-7CE5-45F5-9685-FF6FD46C60BA}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -707,7 +707,7 @@
         <v>22.99</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D16" si="1">B4*C4</f>
+        <f t="shared" ref="D4:D14" si="1">B4*C4</f>
         <v>45.98</v>
       </c>
       <c r="F4" s="2" t="s">

--- a/Acquisti Sistema Pylon.xlsx
+++ b/Acquisti Sistema Pylon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\Github\Sistema_Pylon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C040B48D-E395-417A-940F-B4F8990DDF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE735F1-E794-4303-8718-77B4E4A60F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{919D15A3-50BB-4F82-B8B9-179E2E0BB8A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{919D15A3-50BB-4F82-B8B9-179E2E0BB8A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Ordini Giacomo" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -627,22 +618,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B13C806-7CE5-45F5-9685-FF6FD46C60BA}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -659,7 +650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -674,7 +665,7 @@
         <v>12.989999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -696,7 +687,7 @@
         <v>689.58999999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -718,7 +709,7 @@
         <v>76.680000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -733,7 +724,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -755,7 +746,7 @@
         <v>612.90999999999985</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -769,8 +760,12 @@
         <f t="shared" si="1"/>
         <v>11.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>G6+75</f>
+        <v>687.90999999999985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -785,7 +780,7 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -800,7 +795,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -815,7 +810,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -833,7 +828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -854,7 +849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -872,7 +867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -890,7 +885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -908,7 +903,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -926,7 +921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -941,7 +936,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -956,7 +951,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -971,7 +966,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -986,7 +981,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1001,7 +996,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1011,7 @@
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1026,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -1046,7 +1041,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -1061,7 +1056,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -1076,7 +1071,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -1091,7 +1086,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -1106,7 +1101,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -1121,7 +1116,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
@@ -1136,7 +1131,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -1151,7 +1146,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1166,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1176,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
@@ -1196,7 +1191,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -1211,7 +1206,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -1226,7 +1221,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -1256,7 +1251,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -1271,7 +1266,7 @@
         <v>56.58</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -1286,7 +1281,7 @@
         <v>25.97</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1301,7 +1296,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
